--- a/data/trans_bre/P16A02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.903611989774523</v>
+        <v>2.518868503582312</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.341385713822575</v>
+        <v>7.10714728628349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.726867182835047</v>
+        <v>-1.952282296917254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.262001459954307</v>
+        <v>6.835433009380343</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1220062765340136</v>
+        <v>0.1724375399205278</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4168754753261238</v>
+        <v>0.4194727083622933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.07858150109191352</v>
+        <v>-0.09248275646521377</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2972048071415646</v>
+        <v>0.3066671906513423</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.92786403917658</v>
+        <v>13.18894241100784</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.46321847271453</v>
+        <v>19.48227739073097</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.21075650364404</v>
+        <v>10.54757002304831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.49796030526894</v>
+        <v>16.82212104960923</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.322351401444121</v>
+        <v>1.275637302768581</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.711674298140137</v>
+        <v>1.835232958573438</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5903547898562859</v>
+        <v>0.6067997924777923</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9649885470423477</v>
+        <v>1.009489017503532</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.4658624228510348</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5988721431182293</v>
+        <v>0.5988721431182296</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4975848646765549</v>
+        <v>1.398060374467571</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.815993933614414</v>
+        <v>7.27036761021395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.100584937749158</v>
+        <v>2.219184450461324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.346368754776527</v>
+        <v>6.130356837414896</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02647841880551684</v>
+        <v>0.06664620396371317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3717269579685652</v>
+        <v>0.3314463825608184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09755247084087076</v>
+        <v>0.1001286630778733</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2714068614134859</v>
+        <v>0.2546597575906429</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.93001573032037</v>
+        <v>12.52299044284216</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.02217747768832</v>
+        <v>20.9756199228966</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.25529065688921</v>
+        <v>14.02632473787259</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.17119762753282</v>
+        <v>17.03890248489575</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9830710496950218</v>
+        <v>0.9557822775544781</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.374152071598745</v>
+        <v>1.360333422570998</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9374122033193003</v>
+        <v>0.9443288622675584</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.046182149534842</v>
+        <v>0.9864222849725391</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.8109713138194106</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6806122736063948</v>
+        <v>0.6806122736063951</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.781943789993775</v>
+        <v>4.177126049889067</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8817207402530919</v>
+        <v>1.163068707443106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.036190411815845</v>
+        <v>7.974224544099166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.40462100811162</v>
+        <v>11.26966871220784</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2538821293011622</v>
+        <v>0.2436009512898193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04259103650712027</v>
+        <v>0.0413641775667847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3807577948911319</v>
+        <v>0.3514170851476756</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3723989895757274</v>
+        <v>0.3709046375473884</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.34155353363422</v>
+        <v>18.43211627218178</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.37908940131765</v>
+        <v>15.03854789415158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.43449360953794</v>
+        <v>24.93225287732949</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.18639669811065</v>
+        <v>26.47795760126834</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.613442485897982</v>
+        <v>1.625870739799437</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7785656551569897</v>
+        <v>0.7658862529648993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.476255021317864</v>
+        <v>1.377354277614296</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.085655908663566</v>
+        <v>1.066497831603142</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.4419405191043067</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.373353760510699</v>
+        <v>0.3733537605106991</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.553468309187213</v>
+        <v>1.746967372024995</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.418179112713779</v>
+        <v>5.619747266460546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.971116825716897</v>
+        <v>4.938727561865361</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.734090433900189</v>
+        <v>6.809562194641063</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09189346783161829</v>
+        <v>0.09952648073479607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2363646497603399</v>
+        <v>0.2482542305735169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2291579081226741</v>
+        <v>0.2358069162507381</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2167071315190709</v>
+        <v>0.2230900086034773</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.219749410887196</v>
+        <v>8.914810207437519</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.01074094944332</v>
+        <v>14.26783009198465</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.80464615137153</v>
+        <v>13.01310763012643</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.64195921384107</v>
+        <v>14.80920285609386</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.619940416169812</v>
+        <v>0.5962103684544899</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7378496779442547</v>
+        <v>0.7542270887283462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6988602257482495</v>
+        <v>0.7246707371631972</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5518510438731303</v>
+        <v>0.5651397869748779</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>17.40445878399872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22.67761805583336</v>
+        <v>22.67761805583338</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9415339675839119</v>
@@ -1049,7 +1049,7 @@
         <v>0.9309403579414548</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8961100045152351</v>
+        <v>0.896110004515236</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.332038182083424</v>
+        <v>7.516474347610486</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.48055221557049</v>
+        <v>15.17111037553511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.70218204078857</v>
+        <v>12.51755817741808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.63800194721738</v>
+        <v>18.01707064110247</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4181561631264283</v>
+        <v>0.4111439199452924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7783198524909908</v>
+        <v>0.7287359264314938</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6084909271738131</v>
+        <v>0.5868625876800442</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6095638906743222</v>
+        <v>0.6222044696577888</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.74657612807506</v>
+        <v>18.50053485488104</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.84962365455242</v>
+        <v>25.29625921541291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.88534917902947</v>
+        <v>21.93640275492673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27.55866170742926</v>
+        <v>27.8809261242443</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.625111586784032</v>
+        <v>1.622488983536048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.768723029367199</v>
+        <v>1.67761012675453</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.346438585089747</v>
+        <v>1.30894324915458</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.238556698237795</v>
+        <v>1.270254618072673</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>19.60825733137698</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26.50444561218073</v>
+        <v>26.50444561218072</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>3.116080074128403</v>
@@ -1149,7 +1149,7 @@
         <v>1.489927483737007</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.387726882779804</v>
+        <v>2.387726882779803</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.16170277483073</v>
+        <v>15.22182725878049</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.72562614156866</v>
+        <v>24.98498436299298</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13.88319559494461</v>
+        <v>13.9822769784665</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19.46198606990406</v>
+        <v>18.31166236177583</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.669064508149517</v>
+        <v>1.7572363691541</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.375252699006039</v>
+        <v>2.416047105964332</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8004101807935393</v>
+        <v>0.8241518629057829</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.083948575236613</v>
+        <v>0.9949838841275235</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.54358111016501</v>
+        <v>22.34087034649679</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>33.2705036343554</v>
+        <v>33.60415382142859</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24.04061755490216</v>
+        <v>24.35757174108349</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33.00697292358446</v>
+        <v>32.37804925217915</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.515089637861136</v>
+        <v>5.493100520619498</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.031129141149848</v>
+        <v>7.443692958418145</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.509576204769103</v>
+        <v>2.60924684061665</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5.584543096410681</v>
+        <v>5.790170958958002</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>12.22414102666436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15.24331430672619</v>
+        <v>15.24331430672618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7168172033894815</v>
@@ -1249,7 +1249,7 @@
         <v>0.6490351251678371</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6365489662345484</v>
+        <v>0.6365489662345482</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.111989431409528</v>
+        <v>8.092482300848754</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.3210786292373</v>
+        <v>13.63182706605442</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.87691934011667</v>
+        <v>10.06398145609309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13.07978522210238</v>
+        <v>13.0728540278271</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5489847930553637</v>
+        <v>0.5461709286357661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7134481138673654</v>
+        <v>0.7268870156635889</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5010806510800041</v>
+        <v>0.5040728021026959</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.5173108278150672</v>
+        <v>0.5154843936542145</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.75993643726776</v>
+        <v>11.73659856551706</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.65074853543648</v>
+        <v>17.77759437435082</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.21726650744819</v>
+        <v>14.44779614113811</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.39242219129242</v>
+        <v>17.34357507662055</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8996735728788954</v>
+        <v>0.9073508517014651</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.054478098634873</v>
+        <v>1.048243782038362</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7982632126190681</v>
+        <v>0.8122911836194762</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.772473575730572</v>
+        <v>0.7549879231570163</v>
       </c>
     </row>
     <row r="25">
